--- a/project/CV/CV_16.xlsx
+++ b/project/CV/CV_16.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,1717 +498,3199 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ada</t>
+          <t>adams</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4862504</v>
+        <v>284121</v>
       </c>
       <c r="D2" t="n">
-        <v>47304</v>
+        <v>10886</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>16001</v>
+        <v>28001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.118</v>
+        <v>0.113</v>
       </c>
       <c r="H2" t="n">
-        <v>0.078</v>
+        <v>0.112</v>
       </c>
       <c r="I2" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.08400000000000001</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.194</v>
-      </c>
       <c r="K2" t="n">
-        <v>0.526</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adams</t>
+          <t>alcorn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24179</v>
+        <v>283927</v>
       </c>
       <c r="D3" t="n">
-        <v>370</v>
+        <v>4903</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>16003</v>
+        <v>28003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.094</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2160000000000001</v>
+        <v>0.131</v>
       </c>
       <c r="I3" t="n">
-        <v>0.218</v>
+        <v>0.15</v>
       </c>
       <c r="J3" t="n">
-        <v>0.218</v>
+        <v>0.222</v>
       </c>
       <c r="K3" t="n">
-        <v>0.254</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bannock</t>
+          <t>amite</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>702516</v>
+        <v>117264</v>
       </c>
       <c r="D4" t="n">
-        <v>6110</v>
+        <v>3144</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>16005</v>
+        <v>28005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H4" t="n">
-        <v>0.193</v>
+        <v>0.092</v>
       </c>
       <c r="I4" t="n">
-        <v>0.176</v>
+        <v>0.122</v>
       </c>
       <c r="J4" t="n">
-        <v>0.195</v>
+        <v>0.204</v>
       </c>
       <c r="K4" t="n">
-        <v>0.352</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bear lake</t>
+          <t>attala</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29054</v>
+        <v>247575</v>
       </c>
       <c r="D5" t="n">
-        <v>210</v>
+        <v>8678</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>16007</v>
+        <v>28007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.151</v>
+        <v>0.065</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.104</v>
       </c>
       <c r="I5" t="n">
-        <v>0.102</v>
+        <v>0.092</v>
       </c>
       <c r="J5" t="n">
-        <v>0.243</v>
+        <v>0.139</v>
       </c>
       <c r="K5" t="n">
-        <v>0.385</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>benewah</t>
+          <t>benton</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52908</v>
+        <v>91096</v>
       </c>
       <c r="D6" t="n">
-        <v>649</v>
+        <v>2257</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>16009</v>
+        <v>28009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.038</v>
+        <v>0.018</v>
       </c>
       <c r="H6" t="n">
-        <v>0.059</v>
+        <v>0.014</v>
       </c>
       <c r="I6" t="n">
-        <v>0.15</v>
+        <v>0.246</v>
       </c>
       <c r="J6" t="n">
-        <v>0.152</v>
+        <v>0.233</v>
       </c>
       <c r="K6" t="n">
-        <v>0.601</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bingham</t>
+          <t>bolivar</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>421315</v>
+        <v>512275</v>
       </c>
       <c r="D7" t="n">
-        <v>5217</v>
+        <v>16652</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>16011</v>
+        <v>28011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.095</v>
+        <v>0.123</v>
       </c>
       <c r="H7" t="n">
-        <v>0.197</v>
+        <v>0.046</v>
       </c>
       <c r="I7" t="n">
-        <v>0.175</v>
+        <v>0.127</v>
       </c>
       <c r="J7" t="n">
-        <v>0.229</v>
+        <v>0.249</v>
       </c>
       <c r="K7" t="n">
-        <v>0.304</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>blaine</t>
+          <t>calhoun</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>281621</v>
+        <v>169003</v>
       </c>
       <c r="D8" t="n">
-        <v>2285</v>
+        <v>3237</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>16013</v>
+        <v>28013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.155</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.107</v>
+        <v>0.161</v>
       </c>
       <c r="I8" t="n">
-        <v>0.102</v>
+        <v>0.092</v>
       </c>
       <c r="J8" t="n">
-        <v>0.13</v>
+        <v>0.179</v>
       </c>
       <c r="K8" t="n">
-        <v>0.506</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>boise</t>
+          <t>carroll</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>28352</v>
+        <v>135016</v>
       </c>
       <c r="D9" t="n">
-        <v>340</v>
+        <v>3767</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>16015</v>
+        <v>28015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.057</v>
+        <v>0.08</v>
       </c>
       <c r="H9" t="n">
-        <v>0.038</v>
+        <v>0.144</v>
       </c>
       <c r="I9" t="n">
-        <v>0.038</v>
+        <v>0.119</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5489999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="K9" t="n">
-        <v>0.318</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bonner</t>
+          <t>chickasaw</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>207018</v>
+        <v>229977</v>
       </c>
       <c r="D10" t="n">
-        <v>1509</v>
+        <v>7475</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>16017</v>
+        <v>28017</v>
       </c>
       <c r="G10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.08800000000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.116</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.119</v>
-      </c>
       <c r="J10" t="n">
-        <v>0.241</v>
+        <v>0.182</v>
       </c>
       <c r="K10" t="n">
-        <v>0.436</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bonneville</t>
+          <t>choctaw</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1198430</v>
+        <v>69686</v>
       </c>
       <c r="D11" t="n">
-        <v>11387</v>
+        <v>1780</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>16019</v>
+        <v>28019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.096</v>
+        <v>0.035</v>
       </c>
       <c r="H11" t="n">
-        <v>0.202</v>
+        <v>0.094</v>
       </c>
       <c r="I11" t="n">
-        <v>0.188</v>
+        <v>0.064</v>
       </c>
       <c r="J11" t="n">
-        <v>0.247</v>
+        <v>0.219</v>
       </c>
       <c r="K11" t="n">
-        <v>0.268</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>boundary</t>
+          <t>claiborne</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>58868</v>
+        <v>132865</v>
       </c>
       <c r="D12" t="n">
-        <v>690</v>
+        <v>4100</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>16021</v>
+        <v>28021</v>
       </c>
       <c r="G12" t="n">
-        <v>0.045</v>
+        <v>0.038</v>
       </c>
       <c r="H12" t="n">
-        <v>0.171</v>
+        <v>0.061</v>
       </c>
       <c r="I12" t="n">
-        <v>0.061</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>0.185</v>
+        <v>0.214</v>
       </c>
       <c r="K12" t="n">
-        <v>0.537</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>butte</t>
+          <t>clarke</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19005</v>
+        <v>186155</v>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>11300</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>16023</v>
+        <v>28023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.107</v>
+        <v>0.044</v>
       </c>
       <c r="H13" t="n">
-        <v>0.213</v>
+        <v>0.021</v>
       </c>
       <c r="I13" t="n">
-        <v>0.159</v>
+        <v>0.133</v>
       </c>
       <c r="J13" t="n">
-        <v>0.222</v>
+        <v>0.205</v>
       </c>
       <c r="K13" t="n">
-        <v>0.298</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>camas</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7716</v>
+        <v>196072</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5460</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>16025</v>
+        <v>28025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1860000000000001</v>
+        <v>0.029</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.047</v>
+        <v>0.098</v>
       </c>
       <c r="J14" t="n">
-        <v>0.098</v>
+        <v>0.214</v>
       </c>
       <c r="K14" t="n">
-        <v>0.639</v>
+        <v>0.5770000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>canyon</t>
+          <t>coahoma</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2762988</v>
+        <v>314503</v>
       </c>
       <c r="D15" t="n">
-        <v>29054</v>
+        <v>7793</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>16027</v>
+        <v>28027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.113</v>
+        <v>0.038</v>
       </c>
       <c r="H15" t="n">
-        <v>0.095</v>
+        <v>0.056</v>
       </c>
       <c r="I15" t="n">
-        <v>0.17</v>
+        <v>0.118</v>
       </c>
       <c r="J15" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="K15" t="n">
-        <v>0.381</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>caribou</t>
+          <t>copiah</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>62733</v>
+        <v>361002</v>
       </c>
       <c r="D16" t="n">
-        <v>1082</v>
+        <v>8430</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>16029</v>
+        <v>28029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1</v>
+        <v>0.073</v>
       </c>
       <c r="H16" t="n">
-        <v>0.181</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.191</v>
+        <v>0.134</v>
       </c>
       <c r="J16" t="n">
-        <v>0.202</v>
+        <v>0.157</v>
       </c>
       <c r="K16" t="n">
-        <v>0.326</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cassia</t>
+          <t>covington</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>332066</v>
+        <v>273026</v>
       </c>
       <c r="D17" t="n">
-        <v>2537</v>
+        <v>8035</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>16031</v>
+        <v>28031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.134</v>
+        <v>0.11</v>
       </c>
       <c r="H17" t="n">
-        <v>0.223</v>
+        <v>0.105</v>
       </c>
       <c r="I17" t="n">
-        <v>0.102</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>0.149</v>
+        <v>0.193</v>
       </c>
       <c r="K17" t="n">
-        <v>0.392</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>clark</t>
+          <t>desoto</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7703</v>
+        <v>1991312</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>20585</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>16033</v>
+        <v>28033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.119</v>
+        <v>0.055</v>
       </c>
       <c r="H18" t="n">
-        <v>0.228</v>
+        <v>0.078</v>
       </c>
       <c r="I18" t="n">
-        <v>0.196</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>0.239</v>
+        <v>0.236</v>
       </c>
       <c r="K18" t="n">
-        <v>0.218</v>
+        <v>0.5429999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>clearwater</t>
+          <t>forrest</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>77048</v>
+        <v>798904</v>
       </c>
       <c r="D19" t="n">
-        <v>545</v>
+        <v>20338</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>16035</v>
+        <v>28035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0.112</v>
+        <v>0.042</v>
       </c>
       <c r="I19" t="n">
-        <v>0.127</v>
+        <v>0.091</v>
       </c>
       <c r="J19" t="n">
-        <v>0.25</v>
+        <v>0.267</v>
       </c>
       <c r="K19" t="n">
-        <v>0.475</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>custer</t>
+          <t>franklin</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23864</v>
+        <v>73916</v>
       </c>
       <c r="D20" t="n">
-        <v>228</v>
+        <v>1400</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>16037</v>
+        <v>28037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0.029</v>
+        <v>0.112</v>
       </c>
       <c r="I20" t="n">
-        <v>0.199</v>
+        <v>0.154</v>
       </c>
       <c r="J20" t="n">
-        <v>0.244</v>
+        <v>0.138</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>elmore</t>
+          <t>george</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>159605</v>
+        <v>246168</v>
       </c>
       <c r="D21" t="n">
-        <v>1340</v>
+        <v>4705</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>16039</v>
+        <v>28039</v>
       </c>
       <c r="G21" t="n">
-        <v>0.206</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.044</v>
+        <v>0.102</v>
       </c>
       <c r="I21" t="n">
-        <v>0.038</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>0.173</v>
+        <v>0.346</v>
       </c>
       <c r="K21" t="n">
-        <v>0.539</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>franklin</t>
+          <t>greene</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>100289</v>
+        <v>129393</v>
       </c>
       <c r="D22" t="n">
-        <v>878</v>
+        <v>4452</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>16041</v>
+        <v>28041</v>
       </c>
       <c r="G22" t="n">
-        <v>0.131</v>
+        <v>0.015</v>
       </c>
       <c r="H22" t="n">
-        <v>0.118</v>
+        <v>0.112</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>0.256</v>
+        <v>0.262</v>
       </c>
       <c r="K22" t="n">
-        <v>0.41</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>fremont</t>
+          <t>grenada</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>103592</v>
+        <v>309854</v>
       </c>
       <c r="D23" t="n">
-        <v>1386</v>
+        <v>9493</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F23" t="n">
-        <v>16043</v>
+        <v>28043</v>
       </c>
       <c r="G23" t="n">
-        <v>0.111</v>
+        <v>0.056</v>
       </c>
       <c r="H23" t="n">
-        <v>0.206</v>
+        <v>0.135</v>
       </c>
       <c r="I23" t="n">
-        <v>0.202</v>
+        <v>0.133</v>
       </c>
       <c r="J23" t="n">
-        <v>0.247</v>
+        <v>0.189</v>
       </c>
       <c r="K23" t="n">
-        <v>0.233</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>gem</t>
+          <t>hancock</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>156393</v>
+        <v>266245</v>
       </c>
       <c r="D24" t="n">
-        <v>1917</v>
+        <v>8341</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F24" t="n">
-        <v>16045</v>
+        <v>28045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.119</v>
+        <v>0.063</v>
       </c>
       <c r="H24" t="n">
-        <v>0.136</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>0.111</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.198</v>
+        <v>0.254</v>
       </c>
       <c r="K24" t="n">
-        <v>0.436</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>gooding</t>
+          <t>harrison</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>143312</v>
+        <v>1471608</v>
       </c>
       <c r="D25" t="n">
-        <v>1638</v>
+        <v>22726</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F25" t="n">
-        <v>16047</v>
+        <v>28047</v>
       </c>
       <c r="G25" t="n">
-        <v>0.211</v>
+        <v>0.093</v>
       </c>
       <c r="H25" t="n">
-        <v>0.202</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08900000000000001</v>
+        <v>0.142</v>
       </c>
       <c r="J25" t="n">
-        <v>0.153</v>
+        <v>0.237</v>
       </c>
       <c r="K25" t="n">
-        <v>0.345</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>hinds</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>109042</v>
+        <v>2167842</v>
       </c>
       <c r="D26" t="n">
-        <v>1251</v>
+        <v>44119</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F26" t="n">
-        <v>16049</v>
+        <v>28049</v>
       </c>
       <c r="G26" t="n">
-        <v>0.045</v>
+        <v>0.019</v>
       </c>
       <c r="H26" t="n">
-        <v>0.094</v>
+        <v>0.096</v>
       </c>
       <c r="I26" t="n">
-        <v>0.164</v>
+        <v>0.115</v>
       </c>
       <c r="J26" t="n">
-        <v>0.275</v>
+        <v>0.183</v>
       </c>
       <c r="K26" t="n">
-        <v>0.423</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jefferson</t>
+          <t>holmes</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>242148</v>
+        <v>296912</v>
       </c>
       <c r="D27" t="n">
-        <v>1535</v>
+        <v>14826</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F27" t="n">
-        <v>16051</v>
+        <v>28051</v>
       </c>
       <c r="G27" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.099</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.249</v>
-      </c>
       <c r="K27" t="n">
-        <v>0.252</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>jerome</t>
+          <t>humphreys</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>302624</v>
+        <v>114030</v>
       </c>
       <c r="D28" t="n">
-        <v>2503</v>
+        <v>4310</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F28" t="n">
-        <v>16053</v>
+        <v>28053</v>
       </c>
       <c r="G28" t="n">
-        <v>0.175</v>
+        <v>0.117</v>
       </c>
       <c r="H28" t="n">
-        <v>0.219</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>0.096</v>
+        <v>0.098</v>
       </c>
       <c r="J28" t="n">
-        <v>0.167</v>
+        <v>0.104</v>
       </c>
       <c r="K28" t="n">
-        <v>0.343</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>kootenai</t>
+          <t>issaquena</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1419238</v>
+        <v>22683</v>
       </c>
       <c r="D29" t="n">
-        <v>14540</v>
+        <v>778</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F29" t="n">
-        <v>16055</v>
+        <v>28055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.146</v>
+        <v>0.03</v>
       </c>
       <c r="H29" t="n">
-        <v>0.105</v>
+        <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>0.17</v>
+        <v>0.137</v>
       </c>
       <c r="J29" t="n">
-        <v>0.22</v>
+        <v>0.162</v>
       </c>
       <c r="K29" t="n">
-        <v>0.359</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>latah</t>
+          <t>itawamba</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>246859</v>
+        <v>293533</v>
       </c>
       <c r="D30" t="n">
-        <v>410</v>
+        <v>7386</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F30" t="n">
-        <v>16057</v>
+        <v>28057</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002</v>
+        <v>0.116</v>
       </c>
       <c r="H30" t="n">
-        <v>0.012</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>0.066</v>
+        <v>0.155</v>
       </c>
       <c r="J30" t="n">
-        <v>0.328</v>
+        <v>0.191</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5920000000000001</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>lemhi</t>
+          <t>jackson</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>55209</v>
+        <v>1231740</v>
       </c>
       <c r="D31" t="n">
-        <v>810</v>
+        <v>23190</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F31" t="n">
-        <v>16059</v>
+        <v>28059</v>
       </c>
       <c r="G31" t="n">
-        <v>0.109</v>
+        <v>0.077</v>
       </c>
       <c r="H31" t="n">
-        <v>0.173</v>
+        <v>0.092</v>
       </c>
       <c r="I31" t="n">
-        <v>0.231</v>
+        <v>0.12</v>
       </c>
       <c r="J31" t="n">
-        <v>0.125</v>
+        <v>0.24</v>
       </c>
       <c r="K31" t="n">
-        <v>0.362</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lewis</t>
+          <t>jasper</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>31578</v>
+        <v>202320</v>
       </c>
       <c r="D32" t="n">
-        <v>551</v>
+        <v>4554</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F32" t="n">
-        <v>16061</v>
+        <v>28061</v>
       </c>
       <c r="G32" t="n">
-        <v>0.027</v>
+        <v>0.066</v>
       </c>
       <c r="H32" t="n">
-        <v>0.073</v>
+        <v>0.09</v>
       </c>
       <c r="I32" t="n">
-        <v>0.157</v>
+        <v>0.144</v>
       </c>
       <c r="J32" t="n">
-        <v>0.285</v>
+        <v>0.167</v>
       </c>
       <c r="K32" t="n">
-        <v>0.459</v>
+        <v>0.5329999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>lincoln</t>
+          <t>jefferson</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>54237</v>
+        <v>74915</v>
       </c>
       <c r="D33" t="n">
-        <v>888</v>
+        <v>2575</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F33" t="n">
-        <v>16063</v>
+        <v>28063</v>
       </c>
       <c r="G33" t="n">
-        <v>0.18</v>
+        <v>0.076</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2</v>
+        <v>0.083</v>
       </c>
       <c r="I33" t="n">
-        <v>0.105</v>
+        <v>0.137</v>
       </c>
       <c r="J33" t="n">
-        <v>0.135</v>
+        <v>0.15</v>
       </c>
       <c r="K33" t="n">
-        <v>0.379</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>madison</t>
+          <t>jefferson davis</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>583842</v>
+        <v>112461</v>
       </c>
       <c r="D34" t="n">
-        <v>1529</v>
+        <v>3437</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F34" t="n">
-        <v>16065</v>
+        <v>28065</v>
       </c>
       <c r="G34" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="I34" t="n">
         <v>0.101</v>
       </c>
-      <c r="H34" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.196</v>
-      </c>
       <c r="J34" t="n">
-        <v>0.25</v>
+        <v>0.181</v>
       </c>
       <c r="K34" t="n">
-        <v>0.245</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>minidoka</t>
+          <t>jones</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>277225</v>
+        <v>817198</v>
       </c>
       <c r="D35" t="n">
-        <v>2623</v>
+        <v>20358</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F35" t="n">
-        <v>16067</v>
+        <v>28067</v>
       </c>
       <c r="G35" t="n">
-        <v>0.134</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0.219</v>
+        <v>0.079</v>
       </c>
       <c r="I35" t="n">
-        <v>0.106</v>
+        <v>0.118</v>
       </c>
       <c r="J35" t="n">
-        <v>0.152</v>
+        <v>0.169</v>
       </c>
       <c r="K35" t="n">
-        <v>0.39</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>nez perce</t>
+          <t>kemper</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>321013</v>
+        <v>104062</v>
       </c>
       <c r="D36" t="n">
-        <v>8089</v>
+        <v>4331</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F36" t="n">
-        <v>16069</v>
+        <v>28069</v>
       </c>
       <c r="G36" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.032</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03</v>
+        <v>0.021</v>
       </c>
       <c r="I36" t="n">
-        <v>0.117</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>0.326</v>
+        <v>0.177</v>
       </c>
       <c r="K36" t="n">
-        <v>0.517</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>oneida</t>
+          <t>lafayette</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24945</v>
+        <v>617304</v>
       </c>
       <c r="D37" t="n">
-        <v>156</v>
+        <v>11225</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F37" t="n">
-        <v>16071</v>
+        <v>28071</v>
       </c>
       <c r="G37" t="n">
-        <v>0.083</v>
+        <v>0.019</v>
       </c>
       <c r="H37" t="n">
-        <v>0.173</v>
+        <v>0.059</v>
       </c>
       <c r="I37" t="n">
-        <v>0.153</v>
+        <v>0.161</v>
       </c>
       <c r="J37" t="n">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="K37" t="n">
-        <v>0.406</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>owyhee</t>
+          <t>lamar</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>115998</v>
+        <v>592064</v>
       </c>
       <c r="D38" t="n">
-        <v>2035</v>
+        <v>9188</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F38" t="n">
-        <v>16073</v>
+        <v>28073</v>
       </c>
       <c r="G38" t="n">
-        <v>0.123</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0.137</v>
+        <v>0.045</v>
       </c>
       <c r="I38" t="n">
-        <v>0.146</v>
+        <v>0.08</v>
       </c>
       <c r="J38" t="n">
-        <v>0.171</v>
+        <v>0.27</v>
       </c>
       <c r="K38" t="n">
-        <v>0.423</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>payette</t>
+          <t>lauderdale</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>276102</v>
+        <v>738758</v>
       </c>
       <c r="D39" t="n">
-        <v>2901</v>
+        <v>34520</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F39" t="n">
-        <v>16075</v>
+        <v>28075</v>
       </c>
       <c r="G39" t="n">
-        <v>0.081</v>
+        <v>0.036</v>
       </c>
       <c r="H39" t="n">
-        <v>0.199</v>
+        <v>0.018</v>
       </c>
       <c r="I39" t="n">
-        <v>0.174</v>
+        <v>0.105</v>
       </c>
       <c r="J39" t="n">
-        <v>0.242</v>
+        <v>0.197</v>
       </c>
       <c r="K39" t="n">
-        <v>0.304</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>power</t>
+          <t>lawrence</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>75188</v>
+        <v>142691</v>
       </c>
       <c r="D40" t="n">
-        <v>525</v>
+        <v>2778</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F40" t="n">
-        <v>16077</v>
+        <v>28077</v>
       </c>
       <c r="G40" t="n">
-        <v>0.078</v>
+        <v>0.119</v>
       </c>
       <c r="H40" t="n">
-        <v>0.205</v>
+        <v>0.133</v>
       </c>
       <c r="I40" t="n">
-        <v>0.152</v>
+        <v>0.142</v>
       </c>
       <c r="J40" t="n">
-        <v>0.185</v>
+        <v>0.135</v>
       </c>
       <c r="K40" t="n">
-        <v>0.381</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>shoshone</t>
+          <t>leake</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>92388</v>
+        <v>325141</v>
       </c>
       <c r="D41" t="n">
-        <v>3929</v>
+        <v>9942</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F41" t="n">
-        <v>16079</v>
+        <v>28079</v>
       </c>
       <c r="G41" t="n">
-        <v>0.068</v>
+        <v>0.031</v>
       </c>
       <c r="H41" t="n">
-        <v>0.144</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>0.299</v>
+        <v>0.139</v>
       </c>
       <c r="J41" t="n">
-        <v>0.147</v>
+        <v>0.158</v>
       </c>
       <c r="K41" t="n">
-        <v>0.342</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>teton</t>
+          <t>lee</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>89990</v>
+        <v>985291</v>
       </c>
       <c r="D42" t="n">
-        <v>319</v>
+        <v>19029</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F42" t="n">
-        <v>16081</v>
+        <v>28081</v>
       </c>
       <c r="G42" t="n">
-        <v>0.099</v>
+        <v>0.094</v>
       </c>
       <c r="H42" t="n">
-        <v>0.189</v>
+        <v>0.092</v>
       </c>
       <c r="I42" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="J42" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="K42" t="n">
-        <v>0.272</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>twin falls</t>
+          <t>leflore</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1035127</v>
+        <v>422046</v>
       </c>
       <c r="D43" t="n">
-        <v>16243</v>
+        <v>21363</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F43" t="n">
-        <v>16083</v>
+        <v>28083</v>
       </c>
       <c r="G43" t="n">
-        <v>0.166</v>
+        <v>0.122</v>
       </c>
       <c r="H43" t="n">
-        <v>0.222</v>
+        <v>0.093</v>
       </c>
       <c r="I43" t="n">
-        <v>0.101</v>
+        <v>0.119</v>
       </c>
       <c r="J43" t="n">
-        <v>0.177</v>
+        <v>0.129</v>
       </c>
       <c r="K43" t="n">
-        <v>0.335</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>valley</t>
+          <t>lincoln</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>idaho</t>
+          <t>mississippi</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>54967</v>
+        <v>385308</v>
       </c>
       <c r="D44" t="n">
-        <v>375</v>
+        <v>15308</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F44" t="n">
-        <v>16085</v>
+        <v>28085</v>
       </c>
       <c r="G44" t="n">
-        <v>0.041</v>
+        <v>0.077</v>
       </c>
       <c r="H44" t="n">
-        <v>0.118</v>
+        <v>0.129</v>
       </c>
       <c r="I44" t="n">
-        <v>0.102</v>
+        <v>0.136</v>
       </c>
       <c r="J44" t="n">
-        <v>0.378</v>
+        <v>0.142</v>
       </c>
       <c r="K44" t="n">
-        <v>0.361</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>lowndes</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>566362</v>
+      </c>
+      <c r="D45" t="n">
+        <v>15125</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F45" t="n">
+        <v>28087</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>madison</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1068409</v>
+      </c>
+      <c r="D46" t="n">
+        <v>24329</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F46" t="n">
+        <v>28089</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>marion</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>267550</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10046</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F47" t="n">
+        <v>28091</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>marshall</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>398648</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7997</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F48" t="n">
+        <v>28093</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>monroe</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>425333</v>
+      </c>
+      <c r="D49" t="n">
+        <v>18082</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F49" t="n">
+        <v>28095</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.539</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>montgomery</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>147138</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4831</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F50" t="n">
+        <v>28097</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>neshoba</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>504442</v>
+      </c>
+      <c r="D51" t="n">
+        <v>28191</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F51" t="n">
+        <v>28099</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.7290000000000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>newton</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>248909</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6144</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F52" t="n">
+        <v>28101</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.662</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>noxubee</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>163132</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4011</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F53" t="n">
+        <v>28103</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.009000000000000001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.642</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>oktibbeha</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>516294</v>
+      </c>
+      <c r="D54" t="n">
+        <v>13457</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F54" t="n">
+        <v>28105</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.591</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>panola</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>457821</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9657</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F55" t="n">
+        <v>28107</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.399</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>pearl river</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>353375</v>
+      </c>
+      <c r="D56" t="n">
+        <v>16190</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F56" t="n">
+        <v>28109</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.487</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>perry</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>127186</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4680</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F57" t="n">
+        <v>28111</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>pike</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>360871</v>
+      </c>
+      <c r="D58" t="n">
+        <v>12909</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F58" t="n">
+        <v>28113</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.531</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>pontotoc</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>419761</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5907</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F59" t="n">
+        <v>28115</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.516</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>prentiss</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>278969</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5865</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F60" t="n">
+        <v>28117</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.389</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>quitman</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>98976</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1219</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F61" t="n">
+        <v>28119</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>rankin</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1202635</v>
+      </c>
+      <c r="D62" t="n">
+        <v>23494</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F62" t="n">
+        <v>28121</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>scott</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>380436</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7411</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F63" t="n">
+        <v>28123</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5429999999999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>sharkey</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>64993</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2703</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F64" t="n">
+        <v>28125</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>simpson</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>311732</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10408</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F65" t="n">
+        <v>28127</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.491</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>smith</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>166888</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4327</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F66" t="n">
+        <v>28129</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>stone</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>150017</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2966</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F67" t="n">
+        <v>28131</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>sunflower</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>393866</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10838</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F68" t="n">
+        <v>28133</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>tallahatchie</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>200111</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5046</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F69" t="n">
+        <v>28135</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.461</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>tate</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>334922</v>
+      </c>
+      <c r="D70" t="n">
+        <v>9407</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F70" t="n">
+        <v>28137</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.4370000000000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>tippah</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>258727</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6839</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F71" t="n">
+        <v>28139</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>tishomingo</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>216102</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8054</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F72" t="n">
+        <v>28141</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>tunica</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>126501</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3519</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F73" t="n">
+        <v>28143</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.08900000000000001</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>union</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>365526</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7003</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F74" t="n">
+        <v>28145</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>walthall</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>165318</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5992</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F75" t="n">
+        <v>28147</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.409</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>warren</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>428827</v>
+      </c>
+      <c r="D76" t="n">
+        <v>13488</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F76" t="n">
+        <v>28149</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.586</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>washington</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>idaho</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>130856</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1977</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F45" t="n">
-        <v>16087</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.239</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>649891</v>
+      </c>
+      <c r="D77" t="n">
+        <v>19272</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F77" t="n">
+        <v>28151</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>wayne</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>282256</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5585</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F78" t="n">
+        <v>28153</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03700000000000001</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.5870000000000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>webster</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>109501</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3733</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F79" t="n">
+        <v>28155</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>wilkinson</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>87438</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4951</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F80" t="n">
+        <v>28157</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.481</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>winston</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>253765</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6894</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F81" t="n">
+        <v>28159</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.6759999999999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>yalobusha</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>148890</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4846</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F82" t="n">
+        <v>28161</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.523</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>yazoo</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>mississippi</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>338596</v>
+      </c>
+      <c r="D83" t="n">
+        <v>7664</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F83" t="n">
+        <v>28163</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.608</v>
       </c>
     </row>
   </sheetData>
